--- a/NCMCY25_0.5_1.xlsx_fitting_results.xlsx
+++ b/NCMCY25_0.5_1.xlsx_fitting_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>W</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,31 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02952752768329064</v>
+        <v>0.03050687905953648</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003063312167696233</v>
+        <v>0.007448882123505037</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1574972078638332</v>
+        <v>5.282567967319924</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999999999922</v>
+        <v>0.63888870097224</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004776240268058487</v>
+        <v>5.223369816391341e-20</v>
       </c>
       <c r="G2" t="n">
-        <v>3.684297961222841</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8600333844587974</v>
+        <v>0.9979205531495829</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003783967105026507</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.039022554674793e-07</v>
+        <v>0.001978664441568811</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02997135082563124</v>
+        <v>0.03130018086219378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003608869865833179</v>
+        <v>0.008308701202029256</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2792395012744299</v>
+        <v>6.936399463360473</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9439711032949072</v>
+        <v>0.8707653366844632</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009200510658031812</v>
+        <v>0.002603379355949134</v>
       </c>
       <c r="G3" t="n">
-        <v>5.631311009051501</v>
+        <v>0.6386972920344012</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8524809286563109</v>
+        <v>0.9888277209936921</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003652273555798914</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.984347538225706e-07</v>
+        <v>0.00191232903577853</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02999891622200618</v>
+        <v>0.0313861028316518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004288318430496084</v>
+        <v>0.01134437819042035</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4909783377952345</v>
+        <v>7.019544010552226</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8647362169197876</v>
+        <v>0.8894896361794943</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01215215282930593</v>
+        <v>0.003015855616351973</v>
       </c>
       <c r="G4" t="n">
-        <v>5.839764823960095</v>
+        <v>0.9139391457450523</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8858710282454172</v>
+        <v>0.9286436219024262</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003713572123631571</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.990586810383003e-07</v>
+        <v>0.001964691090991525</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03013267334347245</v>
+        <v>0.03151402559557828</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004551418187617094</v>
+        <v>0.01446553068345246</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6056317640013008</v>
+        <v>7.143922545391242</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8369509561411336</v>
+        <v>0.8895016624311542</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01531521811195404</v>
+        <v>0.003173673605409567</v>
       </c>
       <c r="G5" t="n">
-        <v>6.062648369239863</v>
+        <v>1.041856988970306</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8905993859910701</v>
+        <v>0.9052364679363908</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003797048155399095</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.975673408269987e-07</v>
+        <v>0.002026198142388765</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03029356448140143</v>
+        <v>0.03181191559027084</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0051107025996167</v>
+        <v>0.01726260612277448</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8048306246141235</v>
+        <v>7.191271789950718</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7864992717632783</v>
+        <v>0.8896293918702317</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01807645471841374</v>
+        <v>0.003422217212980294</v>
       </c>
       <c r="G6" t="n">
-        <v>6.170461733050692</v>
+        <v>1.102771156296649</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8960629021714899</v>
+        <v>0.8894124062496264</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003989684928472404</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.953225360191771e-07</v>
+        <v>0.002137330847342492</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03058925742241176</v>
+        <v>0.03221363395442993</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00559882482198181</v>
+        <v>0.02040802978009408</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9889192993353949</v>
+        <v>7.184780910386444</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7478414799533339</v>
+        <v>0.8890677506881992</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02126359710019196</v>
+        <v>0.003676658785057837</v>
       </c>
       <c r="G7" t="n">
-        <v>6.215066508027367</v>
+        <v>1.209967974784056</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8981084545671064</v>
+        <v>0.8663710481067377</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004211159729096949</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.017813994219572e-07</v>
+        <v>0.002266090771741745</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03121463862932818</v>
+        <v>0.03284685240484655</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006081193401292421</v>
+        <v>0.004469649146742296</v>
       </c>
       <c r="D8" t="n">
-        <v>1.024278507419327</v>
+        <v>1.697243792154918</v>
       </c>
       <c r="E8" t="n">
-        <v>0.731629257858266</v>
+        <v>0.7954400907392712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02430063853388222</v>
+        <v>0.0234981365751786</v>
       </c>
       <c r="G8" t="n">
-        <v>6.146807434950896</v>
+        <v>6.563651917386498</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8982354917424459</v>
+        <v>0.9037937785149687</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004461653432206952</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.985435815448745e-07</v>
+        <v>0.002342229476324259</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03206815269923986</v>
+        <v>0.03375663481157406</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006703378746675217</v>
+        <v>0.004957614626792581</v>
       </c>
       <c r="D9" t="n">
-        <v>1.063302320301029</v>
+        <v>1.609188029546123</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7160272127099329</v>
+        <v>0.7855475720289684</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02794224462894796</v>
+        <v>0.02711430564836888</v>
       </c>
       <c r="G9" t="n">
-        <v>5.9575992359058</v>
+        <v>6.345874574543569</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9010367138043881</v>
+        <v>0.9046271048588057</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004790005746899077</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.941212966507678e-07</v>
+        <v>0.002518058350919708</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03304753190565503</v>
+        <v>0.03499126689911558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007865942824555014</v>
+        <v>0.005679903476571296</v>
       </c>
       <c r="D10" t="n">
-        <v>1.157703367077201</v>
+        <v>1.486787209332425</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6793815825037981</v>
+        <v>0.7709695562398211</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0313371155658074</v>
+        <v>0.03061371209608846</v>
       </c>
       <c r="G10" t="n">
-        <v>5.626143173493265</v>
+        <v>5.983717313709599</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9058779663657023</v>
+        <v>0.9056998115174801</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005329166541963526</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.924064491135921e-07</v>
+        <v>0.002792957307087446</v>
       </c>
     </row>
   </sheetData>
